--- a/Figures/References.xlsx
+++ b/Figures/References.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Schooling\Brandeis\rseg176-ccgc\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02687B-D8FC-484A-8F4F-21796E5E4F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD380A-7469-4588-BF02-02910D6A1ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2530" windowWidth="14400" windowHeight="7820" xr2:uid="{9FE8E6EB-1630-4782-9CA5-5F70F8BDD38F}"/>
+    <workbookView xWindow="2855" yWindow="5885" windowWidth="14345" windowHeight="4800" xr2:uid="{9FE8E6EB-1630-4782-9CA5-5F70F8BDD38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
-  <si>
-    <t>Figure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Source:</t>
   </si>
@@ -64,6 +61,39 @@
       </rPr>
       <t>United States Census Bureau; USA.gov. Retrieved from https://www.census.gov/library/publications/2018/demo/p30-04.html.</t>
     </r>
+  </si>
+  <si>
+    <t>Interactive Atlas of Heart Disease and Stroke. (n.d.). Centers for Disease control and prevention. Retrived from: https://nccd.cdc.gov/DHDSPAtlas/Default.aspx?state=MA</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Pov MA/2</t>
+  </si>
+  <si>
+    <t>Poverty % in Ma by county</t>
+  </si>
+  <si>
+    <t>Cardiovasular Disease deaths between 2014-2016 (rate per 100K)</t>
+  </si>
+  <si>
+    <t>CVD MA/2</t>
+  </si>
+  <si>
+    <t>HI MA/2</t>
+  </si>
+  <si>
+    <t>Median Household income (in thousands $)</t>
+  </si>
+  <si>
+    <t>Figure/Folder</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
   </si>
 </sst>
 </file>
@@ -429,47 +459,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628333FB-8E5E-4807-9833-369C3A326E68}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.2265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
